--- a/va_facility_data_2025-02-20/Canandaigua VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Canandaigua%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Canandaigua VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Canandaigua%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R4d48351920704fb7a857780094419009"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Raf48f48c9f4e4129b7a9fe217fda6acd"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1daedfe1ce3a426fa007e5bcea536c95"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rc31244067cdc40fe9291b80fd54373dd"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0cc37e17f67645b7b42a4613cb77da96"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf475782e13ef43f9b9f7f1e5f2e72fd7"/>
   </x:sheets>
 </x:workbook>
 </file>
